--- a/src/test/resources/AmazonTestData.xlsx
+++ b/src/test/resources/AmazonTestData.xlsx
@@ -33,9 +33,6 @@
     <t>customer service page title</t>
   </si>
   <si>
-    <t>Amazon Customer Service Support – Amazon.com</t>
-  </si>
-  <si>
     <t>registry page title</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>https://www.amazon.com/b/?_encoding</t>
+  </si>
+  <si>
+    <t>Help &amp; Contact Us - Amazon Customer Service</t>
   </si>
 </sst>
 </file>
@@ -133,9 +133,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -442,7 +443,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,10 +462,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,10 +478,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,55 +489,56 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/AmazonTestData.xlsx
+++ b/src/test/resources/AmazonTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>amazon home page title</t>
   </si>
@@ -76,6 +76,45 @@
   </si>
   <si>
     <t>Help &amp; Contact Us - Amazon Customer Service</t>
+  </si>
+  <si>
+    <t>Autosujjestions count</t>
+  </si>
+  <si>
+    <t>amazon signaIn page title</t>
+  </si>
+  <si>
+    <t>Amazon Sign-In</t>
+  </si>
+  <si>
+    <t>amazon signaIn page partial URL</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ap/signin?</t>
+  </si>
+  <si>
+    <t>Search Box Test data</t>
+  </si>
+  <si>
+    <t>womens tops</t>
+  </si>
+  <si>
+    <t>amazon womens top page title</t>
+  </si>
+  <si>
+    <t>Amazon.com : womens tops</t>
+  </si>
+  <si>
+    <t>LYANER Women's Sexy Deep V Neck Slim Fitted Strap Crop Cami Tank Sleeveless Top</t>
+  </si>
+  <si>
+    <t>Searched womens top page title</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Size of women top</t>
   </si>
 </sst>
 </file>
@@ -133,11 +172,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,16 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="80.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,6 +572,62 @@
       </c>
       <c r="B10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
